--- a/kwdautomation/src/test/java/testscenarios/TestCases.xlsx
+++ b/kwdautomation/src/test/java/testscenarios/TestCases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepthi\eclipse-workspace\kwdautomation\src\test\java\testscenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E005457\git\SeleniumTests\kwdautomation\src\test\java\testscenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27BEF06-AA8D-41B0-93C5-DA6AA3F29088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2868DA-A349-4F32-A8DD-E4E14631396F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testcases" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Execute</t>
   </si>
   <si>
-    <t>Screenshots</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -72,15 +69,6 @@
     <t>TC-001-TS-01</t>
   </si>
   <si>
-    <t>Open Application</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>windows</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -93,9 +81,6 @@
     <t>Enter User Name</t>
   </si>
   <si>
-    <t>APPOPEN</t>
-  </si>
-  <si>
     <t>TYPE</t>
   </si>
   <si>
@@ -165,18 +150,9 @@
     <t>xpath</t>
   </si>
   <si>
-    <t>Clcik on Login Button</t>
-  </si>
-  <si>
     <t>TC-001-TS-08</t>
   </si>
   <si>
-    <t>Close Application</t>
-  </si>
-  <si>
-    <t>APPCLOSE</t>
-  </si>
-  <si>
     <t>Waiting for few minutes</t>
   </si>
   <si>
@@ -186,19 +162,10 @@
     <t>TC-001-TS-09</t>
   </si>
   <si>
-    <t>TC-001-TS-10</t>
-  </si>
-  <si>
-    <t>TC-001-TS-11</t>
-  </si>
-  <si>
-    <t>http://demowebshop.tricentis.com/</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>link</t>
+  </si>
+  <si>
+    <t>Click on Login Button</t>
   </si>
 </sst>
 </file>
@@ -277,13 +244,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -574,27 +540,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,10 +576,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -634,413 +599,304 @@
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="4">
-        <v>10</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>19</v>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>19</v>
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4">
-        <v>3000</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>19</v>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>19</v>
+      <c r="G8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="C9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4">
-        <v>5000</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4">
-        <v>3000</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="4" t="b">
+      <c r="H10" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>19</v>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1" xr:uid="{DF753109-BBA6-41A8-BFF4-496B1114030F}"/>
-    <hyperlink ref="K2" r:id="rId2" xr:uid="{4E330FD2-370A-4A8C-99C6-2F071CF00294}"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{DF753109-BBA6-41A8-BFF4-496B1114030F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/kwdautomation/src/test/java/testscenarios/TestCases.xlsx
+++ b/kwdautomation/src/test/java/testscenarios/TestCases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E005457\git\SeleniumTests\kwdautomation\src\test\java\testscenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepthi\Desktop\SeleniumGitCode\kwdautomation\src\test\java\testscenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2868DA-A349-4F32-A8DD-E4E14631396F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE02CFD-5638-44DF-AA97-44AF2107A4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testcases" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -166,6 +166,27 @@
   </si>
   <si>
     <t>Click on Login Button</t>
+  </si>
+  <si>
+    <t>DBTEST</t>
+  </si>
+  <si>
+    <t>Verify DB for this Query</t>
+  </si>
+  <si>
+    <t>TC-002</t>
+  </si>
+  <si>
+    <t>Verify DB Tables</t>
+  </si>
+  <si>
+    <t>TC-002-TS-01</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>SELECT * from employee;</t>
   </si>
 </sst>
 </file>
@@ -540,26 +561,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -627,13 +648,13 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -656,13 +677,13 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -691,13 +712,13 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -726,13 +747,13 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -759,13 +780,13 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -788,13 +809,13 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -821,13 +842,13 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -850,13 +871,13 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -885,9 +906,40 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
